--- a/data/trans_dic/P15_4-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_4-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19</t>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>36,38%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,72; 24,22</t>
+          <t>15,15; 28,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,98</t>
+          <t>6,66; 16,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,27; 39,68</t>
+          <t>27,08; 47,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,35; 38,96</t>
+          <t>27,89; 45,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,08; 21,08</t>
+          <t>14,85; 26,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,16</t>
+          <t>6,01; 14,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,18; 33,39</t>
+          <t>26,72; 39,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,06; 37,94</t>
+          <t>28,42; 42,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,05</t>
+          <t>16,15; 24,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,61</t>
+          <t>7,37; 13,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,01; 34,23</t>
+          <t>28,99; 41,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,25; 36,44</t>
+          <t>30,92; 41,71</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>40,03%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,79</t>
+          <t>8,52; 21,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 14,18</t>
+          <t>4,25; 14,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,08; 39,95</t>
+          <t>23,4; 40,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,23; 51,19</t>
+          <t>39,56; 58,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,77</t>
+          <t>4,88; 12,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,95</t>
+          <t>2,16; 8,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,82; 38,91</t>
+          <t>27,31; 41,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,2; 40,09</t>
+          <t>25,48; 40,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,59</t>
+          <t>7,5; 14,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,89</t>
+          <t>3,77; 9,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,64; 36,84</t>
+          <t>27,93; 39,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,6; 43,56</t>
+          <t>34,65; 46,53</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>31,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 28,58</t>
+          <t>8,31; 43,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 17,61</t>
+          <t>2,15; 25,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 47,67</t>
+          <t>9,21; 47,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,37; 59,44</t>
+          <t>7,94; 50,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 17,93</t>
+          <t>4,89; 26,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 18,69</t>
+          <t>2,52; 21,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,8; 41,62</t>
+          <t>13,98; 41,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,29; 50,61</t>
+          <t>20,71; 51,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 20,89</t>
+          <t>9,67; 29,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 15,42</t>
+          <t>3,1; 18,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 41,18</t>
+          <t>15,12; 38,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,87; 50,75</t>
+          <t>18,19; 45,22</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>37,33%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,37</t>
+          <t>14,17; 23,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 13,17</t>
+          <t>6,72; 13,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,56; 37,52</t>
+          <t>26,65; 41,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,29; 44,43</t>
+          <t>33,78; 46,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 15,11</t>
+          <t>11,51; 18,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,08</t>
+          <t>5,14; 10,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 33,28</t>
+          <t>28,56; 37,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,33; 37,12</t>
+          <t>29,3; 39,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 16,68</t>
+          <t>13,54; 18,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 9,64</t>
+          <t>6,53; 10,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,01; 34,15</t>
+          <t>28,95; 36,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,42; 38,92</t>
+          <t>33,34; 41,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>76534</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46183</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>129105</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>142076</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86755</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49061</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>140348</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>144716</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>163289</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>95243</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>269453</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>286791</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>55408; 102996</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28648; 70950</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>99166; 172794</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>106213; 172913</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>64646; 114400</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30585; 72977</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>112527; 167452</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>115800; 172894</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>129340; 199115</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69178; 125297</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>228185; 326658</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>243715; 328819</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>41087</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30160</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100260</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>155037</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>27994</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19702</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>115025</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>108227</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>69081</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>49862</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>215285</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>263264</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25953; 64275</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15282; 50942</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>74485; 129417</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>127638; 188917</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17087; 43917</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9202; 38123</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92432; 141878</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>85349; 134320</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49131; 94000</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29569; 75672</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>183440; 256453</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>227884; 305970</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19278</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19987</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23446</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10586</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8118</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21068</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29082</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29864</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17747</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41054</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>52528</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7050; 37172</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2185; 25577</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7329; 37816</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6800; 43577</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4038; 22235</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2546; 21518</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11401; 34065</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17095; 42286</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16185; 49432</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6283; 36740</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24364; 62047</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30586; 76028</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>136898</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>85971</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>249352</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>320558</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>125335</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>76881</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>276441</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>282026</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>262234</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>162852</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>525792</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>602584</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>107036; 173910</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>59880; 121399</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>203652; 319529</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>266565; 368804</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>99904; 158696</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53227; 106109</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>240234; 314406</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>241728; 322150</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>219764; 307248</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>125742; 204339</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>464629; 589278</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>538049; 663476</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>